--- a/Ejemplo códigos.xlsx
+++ b/Ejemplo códigos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isako\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\Ingenieria comunicaciones\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E341EFB-3A53-4299-87BD-2F239120A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6147E87A-B34A-4B4C-B537-82F558F611F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{640F46EC-2D1A-4261-98D9-DC73EB2D779A}"/>
   </bookViews>
@@ -405,7 +405,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FB773F-0E90-4FED-9970-424637FFA908}">
   <dimension ref="A1:E258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2943,7 +2945,7 @@
         <v>15411.764705882424</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" ref="B195:B258" si="6">+DEC2BIN(C195,8)</f>
+        <f t="shared" ref="B195:B257" si="6">+DEC2BIN(C195,8)</f>
         <v>11000001</v>
       </c>
       <c r="C195">
@@ -2965,7 +2967,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <f t="shared" ref="A197:A258" si="7">+A196+$E$1</f>
+        <f t="shared" ref="A197:A257" si="7">+A196+$E$1</f>
         <v>15882.352941176543</v>
       </c>
       <c r="B197" s="1" t="str">
